--- a/Feb24.xlsx
+++ b/Feb24.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="14440" tabRatio="496" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="25605" windowHeight="14445" tabRatio="496" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Project Description" sheetId="14" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -630,18 +630,21 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -661,7 +664,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -682,6 +685,18 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -760,7 +775,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -845,6 +860,10 @@
     <xf numFmtId="15" fontId="11" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -869,15 +888,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1543,155 +1577,155 @@
       <selection sqref="A1:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="50.1640625" customWidth="1"/>
+    <col min="9" max="9" width="50.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-    </row>
-    <row r="11" spans="1:9" ht="7.5" customHeight="1">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-    </row>
-    <row r="12" spans="1:9" ht="3" customHeight="1">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-    </row>
-    <row r="13" spans="1:9" hidden="1">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+    </row>
+    <row r="11" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+    </row>
+    <row r="12" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1714,14 +1748,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="51.5" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="3"/>
+    <col min="1" max="1" width="19.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="51.42578125" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" ht="15">
+    <row r="1" spans="1:2" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
@@ -1729,7 +1763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
@@ -1737,7 +1771,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>37</v>
       </c>
@@ -1745,7 +1779,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>8</v>
       </c>
@@ -1768,37 +1802,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I51"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:I58"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="44.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="44.7109375" customWidth="1"/>
     <col min="9" max="9" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="28">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
       <c r="E4" s="27" t="s">
         <v>0</v>
       </c>
@@ -1815,10 +1849,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
+    <row r="5" spans="1:9" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
       <c r="F5" s="4" t="s">
         <v>97</v>
       </c>
@@ -1826,11 +1860,11 @@
       <c r="H5" s="21"/>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:9" ht="33" customHeight="1" thickTop="1">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:9" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="28">
         <v>4</v>
       </c>
@@ -1848,66 +1882,66 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="29">
         <v>42061</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="45" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="29">
         <v>42089</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="47" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="28">
-      <c r="A9" s="32" t="s">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="28">
         <v>22</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="46" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="11" t="s">
@@ -1917,7 +1951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="28">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="E10" s="26" t="s">
         <v>71</v>
       </c>
@@ -1931,7 +1965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F11" s="5" t="s">
         <v>83</v>
       </c>
@@ -1939,7 +1973,7 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E12" s="26" t="s">
         <v>39</v>
       </c>
@@ -1954,7 +1988,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E13" s="26" t="s">
         <v>57</v>
       </c>
@@ -1971,7 +2005,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="E14" s="26" t="s">
         <v>58</v>
       </c>
@@ -1988,7 +2022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="28">
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="E15" s="26" t="s">
         <v>59</v>
       </c>
@@ -2005,7 +2039,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E16" s="26" t="s">
         <v>60</v>
       </c>
@@ -2020,7 +2054,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="5:9">
+    <row r="17" spans="5:9" ht="30" x14ac:dyDescent="0.25">
       <c r="E17" s="26" t="s">
         <v>61</v>
       </c>
@@ -2037,7 +2071,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="5:9" ht="28">
+    <row r="18" spans="5:9" ht="30" x14ac:dyDescent="0.25">
       <c r="E18" s="26" t="s">
         <v>62</v>
       </c>
@@ -2054,7 +2088,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="5:9">
+    <row r="19" spans="5:9" ht="30" x14ac:dyDescent="0.25">
       <c r="E19" s="26" t="s">
         <v>64</v>
       </c>
@@ -2071,7 +2105,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="5:9">
+    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E20" s="26" t="s">
         <v>65</v>
       </c>
@@ -2086,7 +2120,7 @@
       </c>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" spans="5:9" ht="18">
+    <row r="21" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F21" s="5" t="s">
         <v>86</v>
       </c>
@@ -2094,7 +2128,7 @@
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
     </row>
-    <row r="22" spans="5:9">
+    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E22" s="26" t="s">
         <v>43</v>
       </c>
@@ -2109,7 +2143,7 @@
       </c>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="5:9">
+    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E23" s="26" t="s">
         <v>44</v>
       </c>
@@ -2124,7 +2158,7 @@
       </c>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="5:9">
+    <row r="24" spans="5:9" ht="30" x14ac:dyDescent="0.25">
       <c r="E24" s="26" t="s">
         <v>45</v>
       </c>
@@ -2139,7 +2173,7 @@
       </c>
       <c r="I24" s="15"/>
     </row>
-    <row r="25" spans="5:9">
+    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="26" t="s">
         <v>48</v>
       </c>
@@ -2154,7 +2188,7 @@
       </c>
       <c r="I25" s="15"/>
     </row>
-    <row r="26" spans="5:9">
+    <row r="26" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E26" s="26" t="s">
         <v>50</v>
       </c>
@@ -2169,7 +2203,7 @@
       </c>
       <c r="I26" s="15"/>
     </row>
-    <row r="27" spans="5:9">
+    <row r="27" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E27" s="26" t="s">
         <v>73</v>
       </c>
@@ -2184,7 +2218,7 @@
       </c>
       <c r="I27" s="15"/>
     </row>
-    <row r="28" spans="5:9" ht="28">
+    <row r="28" spans="5:9" ht="30" x14ac:dyDescent="0.25">
       <c r="E28" s="26" t="s">
         <v>77</v>
       </c>
@@ -2201,7 +2235,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E29" s="26" t="s">
         <v>78</v>
       </c>
@@ -2216,20 +2250,20 @@
       </c>
       <c r="I29" s="15"/>
     </row>
-    <row r="34" spans="9:9" ht="20.25" customHeight="1">
+    <row r="34" spans="9:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I34" s="14"/>
     </row>
-    <row r="35" spans="9:9" ht="15.75" customHeight="1"/>
-    <row r="36" spans="9:9">
+    <row r="35" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I36" s="15"/>
     </row>
-    <row r="37" spans="9:9" ht="19.5" customHeight="1">
+    <row r="37" spans="9:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I37" s="15"/>
     </row>
-    <row r="38" spans="9:9" ht="16.5" customHeight="1">
+    <row r="38" spans="9:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I38" s="15"/>
     </row>
-    <row r="51" ht="19.5" customHeight="1"/>
+    <row r="51" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A9:B9"/>
@@ -2257,7 +2291,7 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2273,24 +2307,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -2307,7 +2341,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2" s="4" t="s">
         <v>97</v>
@@ -2322,7 +2356,7 @@
       <c r="J2"/>
       <c r="K2"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -2336,7 +2370,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -2350,7 +2384,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2364,7 +2398,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2381,7 +2415,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2398,7 +2432,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2412,7 +2446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -2426,7 +2460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -2440,7 +2474,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="18">
+    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>83</v>
       </c>
@@ -2450,7 +2484,7 @@
       <c r="F11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -2465,7 +2499,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -2479,7 +2513,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2493,7 +2527,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -2507,7 +2541,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -2524,7 +2558,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -2541,7 +2575,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="28">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -2560,7 +2594,7 @@
       <c r="F18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -2575,7 +2609,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="28">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -2592,7 +2626,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="28">
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -2609,7 +2643,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -2624,7 +2658,7 @@
       </c>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -2641,7 +2675,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2656,7 +2690,7 @@
       </c>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="1:8" ht="18">
+    <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>86</v>
       </c>
@@ -2664,7 +2698,7 @@
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1">
+    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -2679,7 +2713,7 @@
       </c>
       <c r="E26" s="15"/>
     </row>
-    <row r="27" spans="1:8" ht="29.25" customHeight="1">
+    <row r="27" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -2694,7 +2728,7 @@
       </c>
       <c r="E27" s="15"/>
     </row>
-    <row r="28" spans="1:8" ht="28">
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -2709,7 +2743,7 @@
       </c>
       <c r="E28" s="15"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -2724,7 +2758,7 @@
       </c>
       <c r="E29" s="15"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -2739,7 +2773,7 @@
       </c>
       <c r="E30" s="15"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -2754,7 +2788,7 @@
       </c>
       <c r="E31" s="15"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -2769,7 +2803,7 @@
       </c>
       <c r="E32" s="15"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -2785,7 +2819,7 @@
       <c r="E33" s="15"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" s="3" customFormat="1">
+    <row r="34" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -2804,7 +2838,7 @@
       <c r="H34"/>
       <c r="I34"/>
     </row>
-    <row r="35" spans="1:9" ht="28">
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -2821,7 +2855,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -2836,13 +2870,13 @@
       </c>
       <c r="E36" s="15"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B37" s="18"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9" s="3" customFormat="1">
+    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -2873,96 +2907,96 @@
       <selection activeCell="N158" sqref="N158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="5:8">
-      <c r="F2" s="40" t="s">
+    <row r="2" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-    </row>
-    <row r="3" spans="5:8" ht="14" customHeight="1">
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-    </row>
-    <row r="4" spans="5:8" ht="14" customHeight="1">
-      <c r="E4" s="38"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-    </row>
-    <row r="40" spans="6:8" ht="14" customHeight="1">
-      <c r="F40" s="39" t="s">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+    </row>
+    <row r="3" spans="5:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+    </row>
+    <row r="4" spans="5:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="30"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+    </row>
+    <row r="40" spans="6:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-    </row>
-    <row r="41" spans="6:8" ht="14" customHeight="1">
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-    </row>
-    <row r="42" spans="6:8" ht="23" customHeight="1">
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-    </row>
-    <row r="77" spans="6:9" ht="14" customHeight="1">
-      <c r="F77" s="39" t="s">
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+    </row>
+    <row r="41" spans="6:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+    </row>
+    <row r="42" spans="6:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+    </row>
+    <row r="77" spans="6:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F77" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="41"/>
-    </row>
-    <row r="78" spans="6:9" ht="14" customHeight="1">
-      <c r="F78" s="39"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="41"/>
-    </row>
-    <row r="79" spans="6:9" ht="14" customHeight="1">
-      <c r="F79" s="39"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="41"/>
-    </row>
-    <row r="114" spans="6:8">
-      <c r="F114" s="39" t="s">
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="31"/>
+    </row>
+    <row r="78" spans="6:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="31"/>
+    </row>
+    <row r="79" spans="6:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F79" s="40"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="31"/>
+    </row>
+    <row r="114" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F114" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="G114" s="39"/>
-      <c r="H114" s="39"/>
-    </row>
-    <row r="115" spans="6:8">
-      <c r="F115" s="39"/>
-      <c r="G115" s="39"/>
-      <c r="H115" s="39"/>
-    </row>
-    <row r="116" spans="6:8">
-      <c r="F116" s="39"/>
-      <c r="G116" s="39"/>
-      <c r="H116" s="39"/>
-    </row>
-    <row r="152" spans="6:8">
-      <c r="F152" s="39" t="s">
+      <c r="G114" s="40"/>
+      <c r="H114" s="40"/>
+    </row>
+    <row r="115" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F115" s="40"/>
+      <c r="G115" s="40"/>
+      <c r="H115" s="40"/>
+    </row>
+    <row r="116" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F116" s="40"/>
+      <c r="G116" s="40"/>
+      <c r="H116" s="40"/>
+    </row>
+    <row r="152" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F152" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="G152" s="39"/>
-      <c r="H152" s="39"/>
-    </row>
-    <row r="153" spans="6:8">
-      <c r="F153" s="39"/>
-      <c r="G153" s="39"/>
-      <c r="H153" s="39"/>
-    </row>
-    <row r="154" spans="6:8">
-      <c r="F154" s="39"/>
-      <c r="G154" s="39"/>
-      <c r="H154" s="39"/>
+      <c r="G152" s="40"/>
+      <c r="H152" s="40"/>
+    </row>
+    <row r="153" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F153" s="40"/>
+      <c r="G153" s="40"/>
+      <c r="H153" s="40"/>
+    </row>
+    <row r="154" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F154" s="40"/>
+      <c r="G154" s="40"/>
+      <c r="H154" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Feb24.xlsx
+++ b/Feb24.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="25605" windowHeight="14445" tabRatio="496" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="25605" windowHeight="14445" tabRatio="496" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Project Description" sheetId="14" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Data Model" sheetId="15" r:id="rId4"/>
     <sheet name="User Stories" sheetId="12" r:id="rId5"/>
     <sheet name="Rough Screen Sketches" sheetId="16" r:id="rId6"/>
+    <sheet name="Kellen" sheetId="17" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
@@ -150,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="116">
   <si>
     <t>Story ID</t>
   </si>
@@ -524,6 +525,9 @@
   </si>
   <si>
     <t>Profile Page</t>
+  </si>
+  <si>
+    <t>http://www.4guysfromrolla.com/articles/051910-1.aspx#postadlink</t>
   </si>
 </sst>
 </file>
@@ -775,7 +779,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -864,36 +868,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -912,6 +886,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1327,7 +1334,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1362,7 +1369,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1583,149 +1590,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
     </row>
     <row r="11" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
     </row>
     <row r="12" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
     </row>
     <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1802,7 +1809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -1818,21 +1825,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="28">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
       <c r="E4" s="27" t="s">
         <v>0</v>
       </c>
@@ -1850,9 +1857,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
       <c r="F5" s="4" t="s">
         <v>97</v>
       </c>
@@ -1861,10 +1868,10 @@
       <c r="I5" s="23"/>
     </row>
     <row r="6" spans="1:9" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="28">
         <v>4</v>
       </c>
@@ -1883,65 +1890,65 @@
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="29">
         <v>42061</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="35" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="29">
         <v>42089</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="47" t="s">
+      <c r="H8" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="47" t="s">
+      <c r="I8" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="28">
         <v>22</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="36" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="11" t="s">
@@ -2910,93 +2917,93 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="5:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="5:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E4" s="30"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="40" spans="6:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F40" s="40" t="s">
+      <c r="F40" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
     </row>
     <row r="41" spans="6:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
     </row>
     <row r="42" spans="6:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
     </row>
     <row r="77" spans="6:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F77" s="40" t="s">
+      <c r="F77" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="47"/>
       <c r="I77" s="31"/>
     </row>
     <row r="78" spans="6:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F78" s="40"/>
-      <c r="G78" s="40"/>
-      <c r="H78" s="40"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="47"/>
+      <c r="H78" s="47"/>
       <c r="I78" s="31"/>
     </row>
     <row r="79" spans="6:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F79" s="40"/>
-      <c r="G79" s="40"/>
-      <c r="H79" s="40"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="47"/>
+      <c r="H79" s="47"/>
       <c r="I79" s="31"/>
     </row>
     <row r="114" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F114" s="40" t="s">
+      <c r="F114" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="G114" s="40"/>
-      <c r="H114" s="40"/>
+      <c r="G114" s="47"/>
+      <c r="H114" s="47"/>
     </row>
     <row r="115" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F115" s="40"/>
-      <c r="G115" s="40"/>
-      <c r="H115" s="40"/>
+      <c r="F115" s="47"/>
+      <c r="G115" s="47"/>
+      <c r="H115" s="47"/>
     </row>
     <row r="116" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F116" s="40"/>
-      <c r="G116" s="40"/>
-      <c r="H116" s="40"/>
+      <c r="F116" s="47"/>
+      <c r="G116" s="47"/>
+      <c r="H116" s="47"/>
     </row>
     <row r="152" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F152" s="40" t="s">
+      <c r="F152" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="G152" s="40"/>
-      <c r="H152" s="40"/>
+      <c r="G152" s="47"/>
+      <c r="H152" s="47"/>
     </row>
     <row r="153" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F153" s="40"/>
-      <c r="G153" s="40"/>
-      <c r="H153" s="40"/>
+      <c r="F153" s="47"/>
+      <c r="G153" s="47"/>
+      <c r="H153" s="47"/>
     </row>
     <row r="154" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F154" s="40"/>
-      <c r="G154" s="40"/>
-      <c r="H154" s="40"/>
+      <c r="F154" s="47"/>
+      <c r="G154" s="47"/>
+      <c r="H154" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3015,4 +3022,46 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>